--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H2">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02035233333333334</v>
+        <v>0.02035233333333333</v>
       </c>
       <c r="N2">
-        <v>0.06105700000000001</v>
+        <v>0.061057</v>
       </c>
       <c r="O2">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="P2">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="Q2">
-        <v>0.001411848147444445</v>
+        <v>0.002123270743222222</v>
       </c>
       <c r="R2">
-        <v>0.012706633327</v>
+        <v>0.019109436689</v>
       </c>
       <c r="S2">
-        <v>0.00608369936487919</v>
+        <v>0.003270815272056598</v>
       </c>
       <c r="T2">
-        <v>0.00608369936487919</v>
+        <v>0.003270815272056598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H3">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.03680566666666667</v>
+        <v>0.1381673333333333</v>
       </c>
       <c r="N3">
-        <v>0.110417</v>
+        <v>0.414502</v>
       </c>
       <c r="O3">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="P3">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="Q3">
-        <v>0.002553221365222222</v>
+        <v>0.01441439916155556</v>
       </c>
       <c r="R3">
-        <v>0.022978992287</v>
+        <v>0.129729592454</v>
       </c>
       <c r="S3">
-        <v>0.01100191350331437</v>
+        <v>0.02220481635026293</v>
       </c>
       <c r="T3">
-        <v>0.01100191350331437</v>
+        <v>0.02220481635026293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>11.972371</v>
       </c>
       <c r="I4">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J4">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02035233333333334</v>
+        <v>0.02035233333333333</v>
       </c>
       <c r="N4">
-        <v>0.06105700000000001</v>
+        <v>0.061057</v>
       </c>
       <c r="O4">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="P4">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="Q4">
-        <v>0.08122189512744446</v>
+        <v>0.08122189512744443</v>
       </c>
       <c r="R4">
-        <v>0.7309970561470002</v>
+        <v>0.7309970561469999</v>
       </c>
       <c r="S4">
-        <v>0.3499877750277401</v>
+        <v>0.1251191426511453</v>
       </c>
       <c r="T4">
-        <v>0.3499877750277401</v>
+        <v>0.1251191426511453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>11.972371</v>
       </c>
       <c r="I5">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J5">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03680566666666667</v>
+        <v>0.1381673333333333</v>
       </c>
       <c r="N5">
-        <v>0.110417</v>
+        <v>0.414502</v>
       </c>
       <c r="O5">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="P5">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="Q5">
-        <v>0.1468836987452222</v>
+        <v>0.5513968582491111</v>
       </c>
       <c r="R5">
-        <v>1.321953288707</v>
+        <v>4.962571724241999</v>
       </c>
       <c r="S5">
-        <v>0.6329266121040663</v>
+        <v>0.8494052257265351</v>
       </c>
       <c r="T5">
-        <v>0.6329266121040662</v>
+        <v>0.8494052257265351</v>
       </c>
     </row>
   </sheetData>
